--- a/data/case1/20/Plm2_5.xlsx
+++ b/data/case1/20/Plm2_5.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.32945088764832064</v>
+        <v>-0.26437026758141258</v>
       </c>
       <c r="B1" s="0">
-        <v>0.32845447972394481</v>
+        <v>0.2637540865426331</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.20420685706736386</v>
+        <v>-0.16787880015843015</v>
       </c>
       <c r="B2" s="0">
-        <v>0.20183652458578116</v>
+        <v>0.16639073009917738</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.10634120863168661</v>
+        <v>-0.063445774756303308</v>
       </c>
       <c r="B3" s="0">
-        <v>0.10560796536583439</v>
+        <v>0.063160602815663935</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.16759930016896263</v>
+        <v>-0.12515725109119558</v>
       </c>
       <c r="B4" s="0">
-        <v>0.16647361101243874</v>
+        <v>0.12460964881125136</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.1604736118924146</v>
+        <v>-0.1186096490737425</v>
       </c>
       <c r="B5" s="0">
-        <v>0.15819370735890903</v>
+        <v>0.11753288574789167</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.033450215418650231</v>
+        <v>-0.08636520852316254</v>
       </c>
       <c r="B6" s="0">
-        <v>0.033436199314042181</v>
+        <v>0.086246930049843407</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.013436200384049357</v>
+        <v>-0.066246930374690649</v>
       </c>
       <c r="B7" s="0">
-        <v>0.013427039314803935</v>
+        <v>0.065980010127395516</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0065729596131056667</v>
+        <v>-0.045980010455368259</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.0065954999586432805</v>
+        <v>0.045788881434422279</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.012595499045218617</v>
+        <v>-0.039788881711423585</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.012631455843531647</v>
+        <v>0.039638147473302965</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0186314549318638</v>
+        <v>-0.033638147753215719</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.0186319787527367</v>
+        <v>0.03361946432315932</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.023131977858270147</v>
+        <v>-0.029119464597439304</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.023155767127565952</v>
+        <v>0.029090586758655945</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.029155766217210388</v>
+        <v>-0.023090587039431121</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.029313352111323798</v>
+        <v>0.023014367448852102</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.035313351209532051</v>
+        <v>-0.017014367732062219</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.035392105217927572</v>
+        <v>0.016998838212175293</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.047392104251887446</v>
+        <v>-0.02708635341274146</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.047537981378722449</v>
+        <v>0.027053703203619328</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.021050021830647303</v>
+        <v>-0.021053703488550291</v>
       </c>
       <c r="B15" s="0">
-        <v>0.021026278581267377</v>
+        <v>0.021027995178125813</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015026279476974658</v>
+        <v>-0.015027995464103938</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015003862251113276</v>
+        <v>0.015004597356626626</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.00900386315043189</v>
+        <v>-0.0090045976439609987</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999990662130713</v>
+        <v>0.0089999997006815491</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.11424762354082318</v>
+        <v>-0.085875286652321137</v>
       </c>
       <c r="B18" s="0">
-        <v>0.1140735608372232</v>
+        <v>0.08577799093366778</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.027096656564607802</v>
+        <v>-0.027097192854809826</v>
       </c>
       <c r="B19" s="0">
-        <v>0.027013162504511801</v>
+        <v>0.027013941966810506</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018013163389207776</v>
+        <v>-0.018013942234404112</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004309283590203</v>
+        <v>0.018004312687219581</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090043101694980976</v>
+        <v>-0.0090043129552084267</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999991134348534</v>
+        <v>0.0089999997317127267</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.086495316848969495</v>
+        <v>-0.093944955612483838</v>
       </c>
       <c r="B22" s="0">
-        <v>0.086236472463225411</v>
+        <v>0.093632623691572547</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.077236473365438485</v>
+        <v>-0.084632623963790898</v>
       </c>
       <c r="B23" s="0">
-        <v>0.076823360337565205</v>
+        <v>0.084126502754730659</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.034823361624972904</v>
+        <v>-0.042126503159724216</v>
       </c>
       <c r="B24" s="0">
-        <v>0.034741386386039963</v>
+        <v>0.041999999592715831</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.11874349285072228</v>
+        <v>-0.025167677494092544</v>
       </c>
       <c r="B25" s="0">
-        <v>0.11835264160922776</v>
+        <v>0.025149055225714534</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.11235264252422184</v>
+        <v>-0.01914905549512369</v>
       </c>
       <c r="B26" s="0">
-        <v>0.11183765937428092</v>
+        <v>0.01912960229109828</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.082405316697129027</v>
+        <v>-0.013129602560863596</v>
       </c>
       <c r="B27" s="0">
-        <v>0.081308448367111819</v>
+        <v>0.013073315647926798</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.075308449307951442</v>
+        <v>-0.0070733159186442407</v>
       </c>
       <c r="B28" s="0">
-        <v>0.074548750324693991</v>
+        <v>0.0070423162640649295</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.062548751345884668</v>
+        <v>0.0049576834415425708</v>
       </c>
       <c r="B29" s="0">
-        <v>0.062173322191513947</v>
+        <v>-0.0049664576074448519</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042173323309515176</v>
+        <v>0.024966457282178833</v>
       </c>
       <c r="B30" s="0">
-        <v>0.042019020745024172</v>
+        <v>-0.025131262631942874</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027019021816110822</v>
+        <v>0.040131262327660622</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000494666998165</v>
+        <v>-0.040216663793856355</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060004958074326709</v>
+        <v>0.061216663467074994</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999990290027228</v>
+        <v>-0.061383653262995885</v>
       </c>
     </row>
   </sheetData>
